--- a/Projektleiter/GanttChart.xlsx
+++ b/Projektleiter/GanttChart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68755664-B135-4CF9-B6E4-9229BB54D5FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E53C2C9-5FF9-4764-9A8E-6677BEB381E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1825,7 +1825,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="AO25" sqref="AO25:AO32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
